--- a/Grafic verificare periodica aparaturi.xlsx
+++ b/Grafic verificare periodica aparaturi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cazac Andrei\Desktop\Documente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F30EDC3-C5DB-4FC6-85B2-0F50AA8006C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06DCA7A-B993-4875-AD07-E94D91328F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" firstSheet="48" activeTab="54" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fripteoza papanasi" sheetId="57" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="103">
   <si>
     <t>APARAT</t>
   </si>
@@ -473,6 +473,21 @@
     <t>1. incarcatorul (original) se afla langa el
 2. cântarul este de rezervă și este depizitat în dulapul de lângă biroul HR</t>
   </si>
+  <si>
+    <t>01.08.2023</t>
+  </si>
+  <si>
+    <t>01.07.2023</t>
+  </si>
+  <si>
+    <t>01.09.2023</t>
+  </si>
+  <si>
+    <t>25.08.2023</t>
+  </si>
+  <si>
+    <t>25.07.2023</t>
+  </si>
 </sst>
 </file>
 
@@ -697,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -766,12 +781,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4236,8 +4245,8 @@
   </sheetPr>
   <dimension ref="A6:F44"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4271,14 +4280,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11">
-        <v>45108</v>
-      </c>
-      <c r="C7" s="11">
-        <v>45139</v>
+      <c r="B7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>55</v>
@@ -4291,15 +4300,25 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4307,7 +4326,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4315,7 +4334,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4323,7 +4342,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4331,7 +4350,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4339,7 +4358,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4347,7 +4366,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4355,7 +4374,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4363,7 +4382,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4371,7 +4390,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -4379,7 +4398,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4387,7 +4406,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -4395,7 +4414,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4403,7 +4422,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4545,7 +4564,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="11">
@@ -4565,7 +4584,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4573,7 +4592,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4581,7 +4600,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4589,7 +4608,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4597,7 +4616,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4605,7 +4624,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4613,7 +4632,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4621,7 +4640,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4629,7 +4648,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4637,7 +4656,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4645,7 +4664,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -4653,7 +4672,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4661,7 +4680,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -4669,7 +4688,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4677,7 +4696,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4821,7 +4840,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="11">
@@ -4841,7 +4860,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4849,7 +4868,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4857,7 +4876,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4865,7 +4884,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4873,7 +4892,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4881,7 +4900,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4889,7 +4908,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4897,7 +4916,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4905,7 +4924,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4913,7 +4932,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4921,7 +4940,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -4929,7 +4948,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4937,7 +4956,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -4945,7 +4964,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4953,7 +4972,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5095,7 +5114,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="11">
@@ -5115,7 +5134,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5123,7 +5142,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5131,7 +5150,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5139,7 +5158,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5147,7 +5166,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5155,7 +5174,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5163,7 +5182,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5171,7 +5190,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5179,7 +5198,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5187,7 +5206,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -5195,7 +5214,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -5203,7 +5222,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -5211,7 +5230,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -5219,7 +5238,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5227,7 +5246,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5369,7 +5388,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="11">
@@ -5389,7 +5408,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5397,7 +5416,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5405,7 +5424,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5413,7 +5432,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5421,7 +5440,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5429,7 +5448,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5437,7 +5456,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5445,7 +5464,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5453,7 +5472,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5461,7 +5480,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -5469,7 +5488,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -5477,7 +5496,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -5485,7 +5504,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -5493,7 +5512,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5501,7 +5520,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5643,7 +5662,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="11">
@@ -5663,7 +5682,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5671,7 +5690,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5679,7 +5698,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5687,7 +5706,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5695,7 +5714,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5703,7 +5722,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5711,7 +5730,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5719,7 +5738,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5727,7 +5746,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5735,7 +5754,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -5743,7 +5762,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -5751,7 +5770,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -5759,7 +5778,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -5767,7 +5786,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5775,7 +5794,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5919,7 +5938,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="11">
@@ -5939,7 +5958,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5947,7 +5966,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5955,7 +5974,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5963,7 +5982,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5971,7 +5990,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5979,7 +5998,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5987,7 +6006,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5995,7 +6014,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -6003,7 +6022,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -6011,7 +6030,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -6019,7 +6038,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -6027,7 +6046,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -6035,7 +6054,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -6043,7 +6062,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -6051,7 +6070,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6159,7 +6178,7 @@
   <dimension ref="A6:F44"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6193,7 +6212,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="3"/>
@@ -6203,7 +6222,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6211,7 +6230,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6219,7 +6238,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -6227,7 +6246,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -6235,7 +6254,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -6243,7 +6262,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -6251,7 +6270,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -6259,7 +6278,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -6267,7 +6286,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -6275,7 +6294,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -6283,7 +6302,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -6291,7 +6310,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -6299,7 +6318,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -6307,7 +6326,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -6315,7 +6334,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6423,7 +6442,7 @@
   <dimension ref="A6:F44"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6457,7 +6476,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="11">
@@ -6469,7 +6488,7 @@
       <c r="D7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>91</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -6477,17 +6496,25 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6495,7 +6522,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -6503,7 +6530,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -6511,7 +6538,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -6519,7 +6546,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -6527,7 +6554,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -6535,7 +6562,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -6543,7 +6570,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -6551,7 +6578,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -6559,7 +6586,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -6567,7 +6594,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -6575,7 +6602,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -6583,7 +6610,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -6591,7 +6618,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6701,7 +6728,7 @@
   <dimension ref="A6:F44"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6735,7 +6762,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="11">
@@ -6755,7 +6782,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="11">
         <v>45108</v>
       </c>
@@ -6773,7 +6800,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6781,7 +6808,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -6789,7 +6816,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -6797,7 +6824,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -6805,7 +6832,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -6813,7 +6840,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -6821,7 +6848,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -6829,7 +6856,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -6837,7 +6864,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -6845,7 +6872,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -6853,7 +6880,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -6861,7 +6888,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -6869,7 +6896,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -6877,7 +6904,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -7019,7 +7046,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="3"/>
@@ -7029,7 +7056,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7037,7 +7064,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7045,7 +7072,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -7053,7 +7080,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -7061,7 +7088,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -7069,7 +7096,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -7077,7 +7104,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7085,7 +7112,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -7093,7 +7120,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -7101,7 +7128,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -7109,7 +7136,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -7117,7 +7144,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -7125,7 +7152,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -7133,7 +7160,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -7141,7 +7168,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -7248,8 +7275,8 @@
   </sheetPr>
   <dimension ref="A6:F44"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7283,7 +7310,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="11">
@@ -7296,22 +7323,32 @@
         <v>55</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7319,7 +7356,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -7327,7 +7364,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -7335,7 +7372,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -7343,7 +7380,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -7351,7 +7388,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7359,7 +7396,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -7367,7 +7404,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -7375,7 +7412,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -7383,7 +7420,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -7391,7 +7428,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -7399,7 +7436,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -7407,7 +7444,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -7415,7 +7452,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -7558,7 +7595,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="11">
@@ -7578,7 +7615,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="11">
         <v>45103</v>
       </c>
@@ -7596,7 +7633,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7604,7 +7641,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -7612,7 +7649,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -7620,7 +7657,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -7628,7 +7665,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -7636,7 +7673,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7644,7 +7681,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -7652,7 +7689,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -7660,7 +7697,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -7668,7 +7705,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -7676,7 +7713,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -7684,7 +7721,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -7692,7 +7729,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -7700,7 +7737,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -7842,7 +7879,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="11">
@@ -7862,7 +7899,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7870,7 +7907,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7878,7 +7915,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -7886,7 +7923,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -7894,7 +7931,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -7902,7 +7939,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -7910,7 +7947,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7918,7 +7955,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -7926,7 +7963,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -7934,7 +7971,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -7942,7 +7979,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -7950,7 +7987,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -7958,7 +7995,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -7966,7 +8003,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -7974,7 +8011,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -8116,7 +8153,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="11">
@@ -8136,7 +8173,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8144,7 +8181,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8152,7 +8189,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -8160,7 +8197,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -8168,7 +8205,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -8176,7 +8213,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -8184,7 +8221,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -8192,7 +8229,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -8200,7 +8237,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -8208,7 +8245,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -8216,7 +8253,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -8224,7 +8261,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -8232,7 +8269,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -8240,7 +8277,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -8248,7 +8285,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -8356,7 +8393,7 @@
   <dimension ref="A6:F44"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8390,7 +8427,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11">
@@ -8410,15 +8447,25 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8426,7 +8473,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -8434,7 +8481,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -8442,7 +8489,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -8450,7 +8497,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -8458,7 +8505,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -8466,7 +8513,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -8474,7 +8521,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -8482,7 +8529,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -8490,7 +8537,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -8498,7 +8545,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -8506,7 +8553,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -8514,7 +8561,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -8522,7 +8569,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -8631,8 +8678,8 @@
   </sheetPr>
   <dimension ref="A6:F44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8666,7 +8713,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="11">
@@ -8686,15 +8733,25 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8702,7 +8759,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -8710,7 +8767,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -8718,7 +8775,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -8726,7 +8783,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -8734,7 +8791,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -8742,7 +8799,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -8750,7 +8807,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -8758,7 +8815,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -8766,7 +8823,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -8774,7 +8831,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -8782,7 +8839,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -8790,7 +8847,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -8798,7 +8855,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -8940,7 +8997,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="11">
@@ -8960,7 +9017,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8968,7 +9025,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8976,7 +9033,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -8984,7 +9041,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -8992,7 +9049,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -9000,7 +9057,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -9008,7 +9065,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -9016,7 +9073,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -9024,7 +9081,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -9032,7 +9089,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -9040,7 +9097,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -9048,7 +9105,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -9056,7 +9113,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -9064,7 +9121,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -9072,7 +9129,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -9214,7 +9271,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="11">
@@ -9234,7 +9291,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -9242,7 +9299,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -9250,7 +9307,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -9258,7 +9315,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -9266,7 +9323,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -9274,7 +9331,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -9282,7 +9339,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -9290,7 +9347,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -9298,7 +9355,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -9306,7 +9363,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -9314,7 +9371,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -9322,7 +9379,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -9330,7 +9387,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -9338,7 +9395,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -9346,7 +9403,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -9486,7 +9543,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="3"/>
@@ -9496,7 +9553,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -9504,7 +9561,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -9512,7 +9569,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -9520,7 +9577,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -9528,7 +9585,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -9536,7 +9593,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -9544,7 +9601,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -9552,7 +9609,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -9560,7 +9617,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -9568,7 +9625,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -9576,7 +9633,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -9584,7 +9641,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -9592,7 +9649,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -9600,7 +9657,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -9608,7 +9665,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -9750,7 +9807,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="11">
@@ -9770,7 +9827,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -9778,7 +9835,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -9786,7 +9843,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -9794,7 +9851,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -9802,7 +9859,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -9810,7 +9867,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -9818,7 +9875,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -9826,7 +9883,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -9834,7 +9891,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -9842,7 +9899,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -9850,7 +9907,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -9858,7 +9915,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -9866,7 +9923,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -9874,7 +9931,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -9882,7 +9939,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -10024,7 +10081,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="11">
@@ -10044,7 +10101,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -10052,7 +10109,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -10060,7 +10117,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -10068,7 +10125,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -10076,7 +10133,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -10084,7 +10141,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -10092,7 +10149,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -10100,7 +10157,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -10108,7 +10165,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -10116,7 +10173,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -10124,7 +10181,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -10132,7 +10189,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -10140,7 +10197,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -10148,7 +10205,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -10156,7 +10213,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -10264,7 +10321,7 @@
   <dimension ref="A6:F44"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10298,7 +10355,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="11">
@@ -10318,15 +10375,25 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -10334,7 +10401,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -10342,7 +10409,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -10350,7 +10417,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -10358,7 +10425,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -10366,7 +10433,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -10374,7 +10441,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -10382,7 +10449,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -10390,7 +10457,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -10398,7 +10465,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -10406,7 +10473,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -10414,7 +10481,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -10422,7 +10489,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -10430,7 +10497,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -10573,7 +10640,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="11">
@@ -10593,7 +10660,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="11">
         <v>45099</v>
       </c>
@@ -10611,7 +10678,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -10619,7 +10686,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -10627,7 +10694,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -10635,7 +10702,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -10643,7 +10710,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -10651,7 +10718,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -10659,7 +10726,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -10667,7 +10734,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -10675,7 +10742,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -10683,7 +10750,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -10691,7 +10758,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -10699,7 +10766,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -10707,7 +10774,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -10715,7 +10782,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -10859,7 +10926,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="11">
@@ -10879,7 +10946,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -10887,7 +10954,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -10895,7 +10962,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -10903,7 +10970,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -10911,7 +10978,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -10919,7 +10986,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -10927,7 +10994,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -10935,7 +11002,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -10943,7 +11010,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -10951,7 +11018,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -10959,7 +11026,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -10967,7 +11034,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -10975,7 +11042,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -10983,7 +11050,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -10991,7 +11058,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -11135,7 +11202,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="11">
@@ -11155,7 +11222,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -11163,7 +11230,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -11171,7 +11238,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -11179,7 +11246,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -11187,7 +11254,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -11195,7 +11262,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -11203,7 +11270,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -11211,7 +11278,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -11219,7 +11286,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -11227,7 +11294,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -11235,7 +11302,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -11243,7 +11310,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -11251,7 +11318,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -11259,7 +11326,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -11267,7 +11334,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -11411,7 +11478,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="11">
@@ -11431,7 +11498,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -11439,7 +11506,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -11447,7 +11514,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -11455,7 +11522,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -11463,7 +11530,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -11471,7 +11538,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -11479,7 +11546,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -11487,7 +11554,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -11495,7 +11562,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -11503,7 +11570,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -11511,7 +11578,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -11519,7 +11586,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -11527,7 +11594,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -11535,7 +11602,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -11543,7 +11610,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -11685,7 +11752,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="11">
@@ -11705,7 +11772,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -11713,7 +11780,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -11721,7 +11788,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -11729,7 +11796,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -11737,7 +11804,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -11745,7 +11812,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -11753,7 +11820,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -11761,7 +11828,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -11769,7 +11836,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -11777,7 +11844,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -11785,7 +11852,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -11793,7 +11860,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -11801,7 +11868,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -11809,7 +11876,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -11817,7 +11884,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -11959,7 +12026,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="11">
@@ -11979,7 +12046,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="11">
         <v>45103</v>
       </c>
@@ -11997,7 +12064,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -12005,7 +12072,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -12013,7 +12080,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -12021,7 +12088,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -12029,7 +12096,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -12037,7 +12104,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -12045,7 +12112,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -12053,7 +12120,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -12061,7 +12128,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -12069,7 +12136,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -12077,7 +12144,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -12085,7 +12152,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -12093,7 +12160,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -12101,7 +12168,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -12243,7 +12310,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="11">
@@ -12263,7 +12330,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -12271,7 +12338,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -12279,7 +12346,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -12287,7 +12354,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -12295,7 +12362,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -12303,7 +12370,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -12311,7 +12378,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -12319,7 +12386,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -12327,7 +12394,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -12335,7 +12402,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -12343,7 +12410,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -12351,7 +12418,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -12359,7 +12426,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -12367,7 +12434,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -12375,7 +12442,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -12517,7 +12584,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="11">
@@ -12537,7 +12604,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -12545,7 +12612,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -12553,7 +12620,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -12561,7 +12628,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -12569,7 +12636,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -12577,7 +12644,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -12585,7 +12652,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -12593,7 +12660,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -12601,7 +12668,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -12609,7 +12676,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -12617,7 +12684,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -12625,7 +12692,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -12633,7 +12700,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -12641,7 +12708,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -12649,7 +12716,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -12791,7 +12858,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="11">
@@ -12811,7 +12878,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -12819,7 +12886,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -12827,7 +12894,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -12835,7 +12902,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -12843,7 +12910,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -12851,7 +12918,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -12859,7 +12926,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -12867,7 +12934,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -12875,7 +12942,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -12883,7 +12950,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -12891,7 +12958,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -12899,7 +12966,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -12907,7 +12974,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -12915,7 +12982,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -12923,7 +12990,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -13065,7 +13132,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="11">
@@ -13085,7 +13152,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -13093,7 +13160,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -13101,7 +13168,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -13109,7 +13176,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -13117,7 +13184,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -13125,7 +13192,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -13133,7 +13200,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -13141,7 +13208,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -13149,7 +13216,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -13157,7 +13224,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -13165,7 +13232,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -13173,7 +13240,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -13181,7 +13248,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -13189,7 +13256,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -13197,7 +13264,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -13305,7 +13372,7 @@
   <dimension ref="A6:F44"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13339,7 +13406,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="11">
@@ -13359,15 +13426,25 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -13375,7 +13452,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -13383,7 +13460,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -13391,7 +13468,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -13399,7 +13476,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -13407,7 +13484,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -13415,7 +13492,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -13423,7 +13500,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -13431,7 +13508,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -13439,7 +13516,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -13447,7 +13524,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -13455,7 +13532,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -13463,7 +13540,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -13471,7 +13548,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -13615,7 +13692,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="11">
@@ -13635,7 +13712,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -13643,7 +13720,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -13651,7 +13728,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -13659,7 +13736,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -13667,7 +13744,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -13675,7 +13752,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -13683,7 +13760,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -13691,7 +13768,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -13699,7 +13776,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -13707,7 +13784,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -13715,7 +13792,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -13723,7 +13800,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -13731,7 +13808,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -13739,7 +13816,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -13747,7 +13824,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -13889,7 +13966,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="11">
@@ -13909,7 +13986,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -13917,7 +13994,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -13925,7 +14002,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -13933,7 +14010,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -13941,7 +14018,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -13949,7 +14026,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -13957,7 +14034,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -13965,7 +14042,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -13973,7 +14050,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -13981,7 +14058,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -13989,7 +14066,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -13997,7 +14074,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -14005,7 +14082,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -14013,7 +14090,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -14021,7 +14098,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -14163,7 +14240,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="11">
@@ -14183,7 +14260,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -14191,7 +14268,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -14199,7 +14276,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -14207,7 +14284,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -14215,7 +14292,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -14223,7 +14300,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -14231,7 +14308,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -14239,7 +14316,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -14247,7 +14324,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -14255,7 +14332,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -14263,7 +14340,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -14271,7 +14348,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -14279,7 +14356,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -14287,7 +14364,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -14295,7 +14372,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -14437,7 +14514,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="11">
@@ -14457,7 +14534,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -14465,7 +14542,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -14473,7 +14550,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -14481,7 +14558,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -14489,7 +14566,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -14497,7 +14574,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -14505,7 +14582,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -14513,7 +14590,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -14521,7 +14598,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -14529,7 +14606,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -14537,7 +14614,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -14545,7 +14622,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -14553,7 +14630,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -14561,7 +14638,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -14569,7 +14646,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -14711,7 +14788,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
@@ -14731,7 +14808,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -14739,7 +14816,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -14747,7 +14824,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -14755,7 +14832,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -14763,7 +14840,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -14771,7 +14848,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -14779,7 +14856,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -14787,7 +14864,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -14795,7 +14872,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -14803,7 +14880,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -14811,7 +14888,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -14819,7 +14896,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -14827,7 +14904,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -14835,7 +14912,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -14843,7 +14920,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -14985,7 +15062,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="11">
@@ -15005,7 +15082,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -15013,7 +15090,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -15021,7 +15098,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -15029,7 +15106,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -15037,7 +15114,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -15045,7 +15122,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -15053,7 +15130,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -15061,7 +15138,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -15069,7 +15146,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -15077,7 +15154,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -15085,7 +15162,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -15093,7 +15170,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -15101,7 +15178,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -15109,7 +15186,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -15117,7 +15194,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -15257,7 +15334,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3"/>
@@ -15267,7 +15344,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -15275,7 +15352,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -15283,7 +15360,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -15291,7 +15368,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -15299,7 +15376,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -15307,7 +15384,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -15315,7 +15392,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -15323,7 +15400,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -15331,7 +15408,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -15339,7 +15416,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -15347,7 +15424,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -15355,7 +15432,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -15363,7 +15440,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -15371,7 +15448,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -15379,7 +15456,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -15487,7 +15564,7 @@
   <dimension ref="A6:F44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15521,7 +15598,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="11">
@@ -15541,7 +15618,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -15549,7 +15626,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -15557,7 +15634,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -15565,7 +15642,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -15573,7 +15650,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -15581,7 +15658,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -15589,7 +15666,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -15597,7 +15674,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -15605,7 +15682,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -15613,7 +15690,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -15621,7 +15698,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -15629,7 +15706,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -15637,7 +15714,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -15645,7 +15722,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -15653,7 +15730,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -15795,7 +15872,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
@@ -15815,7 +15892,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -15823,7 +15900,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -15831,7 +15908,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -15839,7 +15916,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -15847,7 +15924,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -15855,7 +15932,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -15863,7 +15940,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -15871,7 +15948,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -15879,7 +15956,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -15887,7 +15964,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -15895,7 +15972,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -15903,7 +15980,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -15911,7 +15988,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -15919,7 +15996,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -15927,7 +16004,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -16069,7 +16146,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11">
@@ -16089,7 +16166,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -16097,7 +16174,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -16105,7 +16182,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -16113,7 +16190,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -16121,7 +16198,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -16129,7 +16206,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -16137,7 +16214,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -16145,7 +16222,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -16153,7 +16230,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -16161,7 +16238,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -16169,7 +16246,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -16177,7 +16254,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -16185,7 +16262,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -16193,7 +16270,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -16201,7 +16278,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -16304,12 +16381,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C21F3F8-9B3D-4662-A4C4-03CB9771297D}">
   <sheetPr codeName="Sheet46">
-    <tabColor rgb="FF00B050"/>
+    <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A6:F44"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16343,7 +16420,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="11">
@@ -16363,7 +16440,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -16371,7 +16448,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -16379,7 +16456,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -16387,7 +16464,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -16395,7 +16472,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -16403,7 +16480,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -16411,7 +16488,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -16419,7 +16496,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -16427,7 +16504,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -16435,7 +16512,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -16443,7 +16520,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -16451,7 +16528,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -16459,7 +16536,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -16467,7 +16544,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -16475,7 +16552,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -16619,7 +16696,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="11">
@@ -16639,7 +16716,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -16647,7 +16724,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -16655,7 +16732,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -16663,7 +16740,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -16671,7 +16748,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -16679,7 +16756,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -16687,7 +16764,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -16695,7 +16772,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -16703,7 +16780,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -16711,7 +16788,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -16719,7 +16796,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -16727,7 +16804,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -16735,7 +16812,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -16743,7 +16820,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -16751,7 +16828,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -16893,7 +16970,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="11">
@@ -16913,7 +16990,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11">
         <v>45099</v>
       </c>
@@ -16931,7 +17008,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -16939,7 +17016,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -16947,7 +17024,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -16955,7 +17032,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -16963,7 +17040,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -16971,7 +17048,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -16979,7 +17056,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -16987,7 +17064,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -16995,7 +17072,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -17003,7 +17080,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -17011,7 +17088,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -17019,7 +17096,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -17027,7 +17104,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -17035,7 +17112,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -17177,7 +17254,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="11">
@@ -17197,7 +17274,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -17205,7 +17282,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -17213,7 +17290,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -17221,7 +17298,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -17229,7 +17306,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -17237,7 +17314,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -17245,7 +17322,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -17253,7 +17330,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -17261,7 +17338,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -17269,7 +17346,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -17277,7 +17354,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -17285,7 +17362,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -17293,7 +17370,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -17301,7 +17378,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -17309,7 +17386,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -17451,7 +17528,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="11">
@@ -17471,7 +17548,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11">
         <v>45099</v>
       </c>
@@ -17489,7 +17566,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -17497,7 +17574,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -17505,7 +17582,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -17513,7 +17590,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -17521,7 +17598,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -17529,7 +17606,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -17537,7 +17614,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -17545,7 +17622,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -17553,7 +17630,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -17561,7 +17638,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -17569,7 +17646,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -17577,7 +17654,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -17585,7 +17662,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -17593,7 +17670,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -17737,7 +17814,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="11">
@@ -17749,7 +17826,7 @@
       <c r="D7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>93</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -17757,7 +17834,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="3"/>
@@ -17765,7 +17842,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -17773,7 +17850,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -17781,7 +17858,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -17789,7 +17866,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -17797,7 +17874,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -17805,7 +17882,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -17813,7 +17890,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -17821,7 +17898,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -17829,7 +17906,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -17837,7 +17914,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -17845,7 +17922,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -17853,7 +17930,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -17861,7 +17938,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -17869,7 +17946,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -17978,7 +18055,7 @@
   </sheetPr>
   <dimension ref="A6:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -18013,7 +18090,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -18025,7 +18102,7 @@
       <c r="D7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>97</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -18033,7 +18110,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="3"/>
@@ -18041,7 +18118,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -18049,7 +18126,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -18057,7 +18134,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -18065,7 +18142,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -18073,7 +18150,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -18081,7 +18158,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -18089,7 +18166,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -18097,7 +18174,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -18105,7 +18182,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -18113,7 +18190,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -18121,7 +18198,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -18129,7 +18206,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -18137,7 +18214,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -18145,7 +18222,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -18289,7 +18366,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="11">
@@ -18301,7 +18378,7 @@
       <c r="D7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>94</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -18309,7 +18386,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="3"/>
@@ -18317,7 +18394,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -18325,7 +18402,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -18333,7 +18410,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -18341,7 +18418,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -18349,7 +18426,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -18357,7 +18434,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -18365,7 +18442,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -18373,7 +18450,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -18381,7 +18458,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -18389,7 +18466,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -18397,7 +18474,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -18405,7 +18482,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -18413,7 +18490,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -18421,7 +18498,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -18565,7 +18642,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="11">
@@ -18585,7 +18662,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="3"/>
@@ -18593,7 +18670,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -18601,7 +18678,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -18609,7 +18686,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -18617,7 +18694,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -18625,7 +18702,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -18633,7 +18710,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -18641,7 +18718,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -18649,7 +18726,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -18657,7 +18734,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -18665,7 +18742,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -18673,7 +18750,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -18681,7 +18758,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -18689,7 +18766,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -18697,7 +18774,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -18841,7 +18918,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="11">
@@ -18861,7 +18938,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -18869,7 +18946,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -18877,7 +18954,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -18885,7 +18962,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -18893,7 +18970,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -18901,7 +18978,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -18909,7 +18986,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -18917,7 +18994,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -18925,7 +19002,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -18933,7 +19010,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -18941,7 +19018,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -18949,7 +19026,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -18957,7 +19034,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -18965,7 +19042,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -18973,7 +19050,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -19117,7 +19194,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="11">
@@ -19137,7 +19214,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -19145,7 +19222,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -19153,7 +19230,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -19161,7 +19238,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -19169,7 +19246,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -19177,7 +19254,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -19185,7 +19262,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -19193,7 +19270,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -19201,7 +19278,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -19209,7 +19286,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -19217,7 +19294,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -19225,7 +19302,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -19233,7 +19310,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -19241,7 +19318,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -19249,7 +19326,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -19393,7 +19470,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="11">
@@ -19413,7 +19490,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -19421,7 +19498,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -19429,7 +19506,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -19437,7 +19514,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -19445,7 +19522,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -19453,7 +19530,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -19461,7 +19538,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -19469,7 +19546,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -19477,7 +19554,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -19485,7 +19562,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -19493,7 +19570,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -19501,7 +19578,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -19509,7 +19586,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -19517,7 +19594,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -19525,7 +19602,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -19668,7 +19745,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="11">
@@ -19688,7 +19765,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -19696,7 +19773,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -19704,7 +19781,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -19712,7 +19789,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -19720,7 +19797,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -19728,7 +19805,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -19736,7 +19813,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -19744,7 +19821,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -19752,7 +19829,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -19760,7 +19837,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -19768,7 +19845,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -19776,7 +19853,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -19784,7 +19861,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -19792,7 +19869,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -19800,7 +19877,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>

--- a/Grafic verificare periodica aparaturi.xlsx
+++ b/Grafic verificare periodica aparaturi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cazac Andrei\Desktop\Documente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documente\GitHub\Documente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06DCA7A-B993-4875-AD07-E94D91328F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" firstSheet="15" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Fripteoza papanasi" sheetId="57" r:id="rId1"/>
@@ -71,7 +70,7 @@
     <sheet name="Cantar SWS (rezerva)" sheetId="59" r:id="rId56"/>
     <sheet name="Cântar electronic 2" sheetId="53" r:id="rId57"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="104">
   <si>
     <t>APARAT</t>
   </si>
@@ -488,11 +487,14 @@
   <si>
     <t>25.07.2023</t>
   </si>
+  <si>
+    <t>eded</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -862,7 +864,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA45C08-6A8B-4699-9D6D-B360208C8A99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEA45C08-6A8B-4699-9D6D-B360208C8A99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +919,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C463F25D-F0AF-4C2C-ABEE-5F8714BB6255}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C463F25D-F0AF-4C2C-ABEE-5F8714BB6255}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -972,7 +974,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CD8A2E-4CB8-4AD2-9F38-34CFFE8BCD70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0CD8A2E-4CB8-4AD2-9F38-34CFFE8BCD70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1027,7 +1029,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2DDE06-08CB-4C47-AABF-FC72C79A7791}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D2DDE06-08CB-4C47-AABF-FC72C79A7791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1084,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFB55C3-0499-4C77-9BFF-08D7F7760FDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAFB55C3-0499-4C77-9BFF-08D7F7760FDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1137,7 +1139,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B662A5B-7C11-4886-B7EF-9068F33158E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B662A5B-7C11-4886-B7EF-9068F33158E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1194,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E49A99-6853-4676-9454-541FE060CF39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16E49A99-6853-4676-9454-541FE060CF39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1247,7 +1249,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB46EF6-5A78-44ED-8A80-5D6E1B1E0427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECB46EF6-5A78-44ED-8A80-5D6E1B1E0427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1302,7 +1304,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B80F4EB-A728-4CE2-879B-D29D4BC57102}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B80F4EB-A728-4CE2-879B-D29D4BC57102}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1359,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACED0C99-CA3E-4B6B-B2D0-10E0A4671012}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACED0C99-CA3E-4B6B-B2D0-10E0A4671012}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1414,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A000CF8E-AA53-438A-9716-EF435F1E00E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A000CF8E-AA53-438A-9716-EF435F1E00E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1469,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE25A73-A76A-4F83-BC2A-D417438D56A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEE25A73-A76A-4F83-BC2A-D417438D56A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1524,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB03003D-E691-4820-8F42-37E2D3F9A8FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB03003D-E691-4820-8F42-37E2D3F9A8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1579,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB315D8D-2F84-48CD-905E-90FEBB700912}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB315D8D-2F84-48CD-905E-90FEBB700912}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1634,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714471B1-CDC3-4E9C-8041-BB4FA5E792FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{714471B1-CDC3-4E9C-8041-BB4FA5E792FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1689,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD9EE87-C830-46B6-AE5C-700F0F81E72C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFD9EE87-C830-46B6-AE5C-700F0F81E72C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1744,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB0728E-D51E-4769-8DC5-612EF2D8A74B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BB0728E-D51E-4769-8DC5-612EF2D8A74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1799,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B30CE2-D6E7-4EB5-9999-B3F0DAACD557}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55B30CE2-D6E7-4EB5-9999-B3F0DAACD557}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1854,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F59746-D3FA-43D4-A84A-ED56CD4610BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59F59746-D3FA-43D4-A84A-ED56CD4610BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +1909,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A96F8C7-D077-41F9-8785-D374FBD6C9AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A96F8C7-D077-41F9-8785-D374FBD6C9AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1964,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71644F62-E23A-4E16-A20C-EAD3DBFD78C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71644F62-E23A-4E16-A20C-EAD3DBFD78C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2019,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A99A071-EC65-43A7-8B90-F9A34CEF95D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A99A071-EC65-43A7-8B90-F9A34CEF95D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2074,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B461D6-FD2E-46D3-A77B-48DFFF4B29F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83B461D6-FD2E-46D3-A77B-48DFFF4B29F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2129,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23359B52-F27E-4833-BEC5-029D44B6AD25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23359B52-F27E-4833-BEC5-029D44B6AD25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2184,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9170C09-4085-44AB-81BD-90FC5F8E17B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9170C09-4085-44AB-81BD-90FC5F8E17B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2239,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5228B149-5916-41BA-AAFB-E384850CFA98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5228B149-5916-41BA-AAFB-E384850CFA98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2294,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A7F53C-D863-471D-ADB0-3A138A28023F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87A7F53C-D863-471D-ADB0-3A138A28023F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2349,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B8414E-7FC5-47CF-A1D0-CE6172D89F2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0B8414E-7FC5-47CF-A1D0-CE6172D89F2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2404,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB3AF92-7F1A-4B9A-A16F-81A5B214AE85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CB3AF92-7F1A-4B9A-A16F-81A5B214AE85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2459,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F50CEC-2998-47E8-B564-C901397FEB9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8F50CEC-2998-47E8-B564-C901397FEB9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2514,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4425C709-CCDB-4571-A22E-D861E038512E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4425C709-CCDB-4571-A22E-D861E038512E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2567,7 +2569,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EEE73C-E57F-457B-BDD3-FE5543BE7BA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59EEE73C-E57F-457B-BDD3-FE5543BE7BA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2624,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADBA702-494D-46C7-9CA8-30C58B90E6AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ADBA702-494D-46C7-9CA8-30C58B90E6AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2677,7 +2679,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C4ED96-C3B5-43E9-B1B7-7ACEF752CE90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10C4ED96-C3B5-43E9-B1B7-7ACEF752CE90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2734,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8C807D-02F5-46B6-82B1-323A467D6DF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F8C807D-02F5-46B6-82B1-323A467D6DF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2789,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987B1598-2BB1-4E31-B4AB-425DBFCA58AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{987B1598-2BB1-4E31-B4AB-425DBFCA58AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2844,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF87ECD-D359-402F-AD36-DDF91DD6EAD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BF87ECD-D359-402F-AD36-DDF91DD6EAD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2899,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A40884-6ABA-4C5E-BB0F-478694533956}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81A40884-6ABA-4C5E-BB0F-478694533956}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2952,7 +2954,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7183E478-79FB-495B-8835-53F860C674E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7183E478-79FB-495B-8835-53F860C674E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3009,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD178291-407C-4095-9DFC-80AC083E3047}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD178291-407C-4095-9DFC-80AC083E3047}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3062,7 +3064,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC7F949-2A26-4B4E-AAE7-07FD95B47279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CC7F949-2A26-4B4E-AAE7-07FD95B47279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3119,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC66AF0-0D19-46D4-84EF-88A7D53C3B15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABC66AF0-0D19-46D4-84EF-88A7D53C3B15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3172,7 +3174,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0ED07D-E0B7-4714-9ABE-503F7122AD70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E0ED07D-E0B7-4714-9ABE-503F7122AD70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3227,7 +3229,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353DC8C9-545F-4533-818B-BE04F76A0ADD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{353DC8C9-545F-4533-818B-BE04F76A0ADD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3282,7 +3284,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1285B67E-9CDB-4984-BB33-90F82E0B6934}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1285B67E-9CDB-4984-BB33-90F82E0B6934}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3337,7 +3339,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AB8137-88ED-4ECD-8129-C16A1363EFCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5AB8137-88ED-4ECD-8129-C16A1363EFCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3394,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC00104-73A7-4BE2-A5C0-B0E2F9FA436B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DC00104-73A7-4BE2-A5C0-B0E2F9FA436B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3447,7 +3449,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8599106-D074-5308-284C-FCEBB37DB316}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8599106-D074-5308-284C-FCEBB37DB316}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3502,7 +3504,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F512A7-0C42-4497-8B23-FC192A74D390}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87F512A7-0C42-4497-8B23-FC192A74D390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3557,7 +3559,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4325DB26-D84A-467C-9192-9116599C0D5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4325DB26-D84A-467C-9192-9116599C0D5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3612,7 +3614,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73AB056-290B-4514-BCE4-9A66FF7320F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D73AB056-290B-4514-BCE4-9A66FF7320F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3667,7 +3669,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55888FE-DA4C-47B8-A970-28A2348F05EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E55888FE-DA4C-47B8-A970-28A2348F05EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3722,7 +3724,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E808E41-62B1-4A64-9956-F7C5EABEC9B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E808E41-62B1-4A64-9956-F7C5EABEC9B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3777,7 +3779,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E640485-6E58-4BC4-B5A4-A42A5D2D8714}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E640485-6E58-4BC4-B5A4-A42A5D2D8714}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3832,7 +3834,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A79E09C-AF86-4E50-A953-1B48A7F36158}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A79E09C-AF86-4E50-A953-1B48A7F36158}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3887,7 +3889,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F937534D-64FC-4A23-B416-7C41FAE13AEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F937534D-64FC-4A23-B416-7C41FAE13AEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3942,7 +3944,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{737419CA-423C-4E14-9CD1-7609FDF4BF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{737419CA-423C-4E14-9CD1-7609FDF4BF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4239,7 +4241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB01F84-D17A-4630-B382-BF83474C2989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -4523,7 +4525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD34AC3-A5D4-4424-A9CC-CA720484F836}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -4799,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08CEABC-8E63-4964-B89F-B86AE1721714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -5073,7 +5075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1A0527-BBC3-4579-86CB-75CDF56D53D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -5347,7 +5349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB01F55-67DC-4C36-8FF3-A0532C605A8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -5621,7 +5623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A956ADA6-99EE-4B04-B603-00AEE3FE79A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -5897,13 +5899,13 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D301DC-5525-4AE2-94B9-3ABF7068B07F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A6:F44"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -5993,7 +5995,9 @@
       <c r="A12" s="36"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
@@ -6173,11 +6177,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6084E1A-0052-4D8B-A251-41C5373DA37A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A6:F44"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6435,7 +6439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402F8092-AFB0-4764-AB94-05E8DFBA743D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -6721,7 +6725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6A8464-D91B-4F9D-AF6A-7327DD9ACA3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -7007,7 +7011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E7EB6D-0FAD-41FE-A618-DE9F7F8249E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A6:F44"/>
   <sheetViews>
@@ -7269,7 +7273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F0FECE-B90C-45E8-B18D-6424AE07869C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7554,7 +7558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8657F06E-95D9-493C-BE6E-70A26DD7F62D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7838,7 +7842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F084EF-19BA-4F2F-8435-A90D4B9DA47D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8112,7 +8116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED946A2-B87D-49A1-9705-FE96EE2D6424}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8386,7 +8390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5A72E2-38EB-4842-BA1D-0DE4212F4231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -8672,13 +8676,13 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704D0DBF-3807-49DA-B84B-0C2185E00A0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A6:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -8956,7 +8960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A0D35A-7833-4BB8-83D2-2A262730C2C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9230,7 +9234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F69D647-3C97-40E3-A4E0-8253EDB370BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9504,7 +9508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC7B20C-3F8E-4585-95F7-A266BA48ADE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A6:F44"/>
   <sheetViews>
@@ -9766,7 +9770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB0D955-EB84-4E90-931F-FBD14833286E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -10040,7 +10044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E7F2F1-F0BA-44F3-85C0-E0D58C169F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -10314,7 +10318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35938CBC-5ADA-4DC5-84FB-798EFE9A7A86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -10599,7 +10603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F257659B-7B51-4036-A5E0-3E243D0BEC13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -10885,7 +10889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44675A59-E331-4782-84C3-5C44C8046841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -11161,7 +11165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706CF5E2-CFE2-411B-B71D-1F51551B1EA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -11437,7 +11441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E1825-854B-43B9-AE3E-AB5988E4B414}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -11711,7 +11715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F05677-66A0-4518-BE6D-D01B4F24AAC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -11985,7 +11989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999C9A9C-FFD6-4419-9BF3-6B92C5449EF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -12269,7 +12273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DA8784-76DC-43F4-80FC-35713FEFD041}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -12543,7 +12547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938AF3FA-95C7-4932-952D-E4D70A1ADDD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -12817,7 +12821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483805D1-824A-4AD9-AAB8-73C600710B73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -13091,7 +13095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69013E91-2976-4C2C-8537-A0C73C2E243E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7">
     <tabColor theme="8"/>
   </sheetPr>
@@ -13365,7 +13369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC2A917-C99B-42FE-B258-38346F94CAB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -13651,7 +13655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FA947A-7BEB-470E-8277-B01EB86CBB3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8">
     <tabColor theme="4"/>
   </sheetPr>
@@ -13925,7 +13929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFABE89A-39AC-4270-816B-BF668B9D8684}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -14199,7 +14203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF93310-79DC-4ED4-944D-2A93423659B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -14473,7 +14477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AFCBF8-D15E-495B-A727-75D41ADF370E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -14747,7 +14751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677357F7-AA11-4878-B665-EA5ECBE96F61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -15021,7 +15025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2C1585-3CB0-4F17-83C0-7560EDE713D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -15295,7 +15299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0162D649-9C93-42A1-AACD-19DC8DCD65D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A6:F44"/>
   <sheetViews>
@@ -15557,7 +15561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BF9B62-4399-44AB-A922-3F8239DB8316}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -15831,7 +15835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1947B1-2852-4E78-BDF1-B5F1CAC3E397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -16105,7 +16109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C0AC43-12A4-4965-A25E-664091E0FB46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -16379,7 +16383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C21F3F8-9B3D-4662-A4C4-03CB9771297D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46">
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
@@ -16655,7 +16659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44EDC9F-F09C-4BF1-8E95-4842ED224915}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -16929,7 +16933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978B7B1B-C04B-4353-8C3E-D42C3599BC0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -17213,7 +17217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -17487,7 +17491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BA6316-C625-4013-A667-8A07DA9D68E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -17773,7 +17777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3693F2-39A8-43AF-A30B-7616267B3850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -18049,7 +18053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9608DC8-AFF3-4800-9D77-57CD241E20D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -18325,7 +18329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAC6C0E-46A8-4681-9A56-A2C8D9DDEF54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -18601,7 +18605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3F69A8-22A6-4B65-A510-16272BBFCF2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -18877,7 +18881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A759F3C-A37E-42BE-BE1D-D4C81D1FAD62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -19153,7 +19157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7AB2BF-57FA-4FBA-A458-805B4BAEF094}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -19429,7 +19433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78F0AC7-599D-457F-A0C2-80F7067CD42A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -19704,7 +19708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51B283F-54F6-4C0F-BC0F-D5473FEECB71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
